--- a/lab6/philosophers_deadlock.xlsx
+++ b/lab6/philosophers_deadlock.xlsx
@@ -629,11 +629,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="99"/>
-        <c:axId val="157621760"/>
-        <c:axId val="223405184"/>
+        <c:axId val="204612096"/>
+        <c:axId val="160391744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157621760"/>
+        <c:axId val="204612096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,7 +666,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223405184"/>
+        <c:crossAx val="160391744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -674,7 +674,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223405184"/>
+        <c:axId val="160391744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157621760"/>
+        <c:crossAx val="204612096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -731,10 +731,10 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>305280</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
